--- a/cenniki/cennik_plis.xlsx
+++ b/cenniki/cennik_plis.xlsx
@@ -8,14 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacperniewczas/Desktop/Kalkulator/cenniki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7566574-604D-0948-A75E-D3698FAF3755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE87AEFC-5918-B24A-8A5F-5B3F9A0E2998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="2160" windowWidth="12520" windowHeight="17240" activeTab="2" xr2:uid="{03D5C20E-6BDB-A34F-A0E5-3FC668B5F4C1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="4" activeTab="8" xr2:uid="{03D5C20E-6BDB-A34F-A0E5-3FC668B5F4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="System_1" sheetId="1" r:id="rId1"/>
     <sheet name="System_2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="System_3" sheetId="5" r:id="rId3"/>
+    <sheet name="System_4" sheetId="4" r:id="rId4"/>
+    <sheet name="System_4a" sheetId="6" r:id="rId5"/>
+    <sheet name="System_5" sheetId="7" r:id="rId6"/>
+    <sheet name="System_6_6a" sheetId="8" r:id="rId7"/>
+    <sheet name="System 7" sheetId="9" r:id="rId8"/>
+    <sheet name="System 8_8a" sheetId="10" r:id="rId9"/>
+    <sheet name="System_9_10" sheetId="11" r:id="rId10"/>
+    <sheet name="System_11" sheetId="12" r:id="rId11"/>
+    <sheet name="System_12" sheetId="13" r:id="rId12"/>
+    <sheet name="System_13" sheetId="14" r:id="rId13"/>
+    <sheet name="System_14" sheetId="15" r:id="rId14"/>
+    <sheet name="System_14a" sheetId="16" r:id="rId15"/>
+    <sheet name="System_15" sheetId="17" r:id="rId16"/>
+    <sheet name="System_15a" sheetId="18" r:id="rId17"/>
+    <sheet name="System_16" sheetId="19" r:id="rId18"/>
+    <sheet name="System_E" sheetId="20" r:id="rId19"/>
+    <sheet name="Material" sheetId="3" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>W [cm}</t>
   </si>
@@ -293,13 +310,22 @@
   </si>
   <si>
     <t>ZORBI-BO-6</t>
+  </si>
+  <si>
+    <t>W1 [cm}</t>
+  </si>
+  <si>
+    <t>W2 [cm}</t>
+  </si>
+  <si>
+    <t>R [cm}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,16 +334,35 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -325,12 +370,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -754,6 +833,1090 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4887DAB-69F2-314A-AD33-7A8B05777372}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>110.94600000000001</v>
+      </c>
+      <c r="C2">
+        <v>116.358</v>
+      </c>
+      <c r="D2">
+        <v>120.417</v>
+      </c>
+      <c r="E2">
+        <v>128.535</v>
+      </c>
+      <c r="F2">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="G2">
+        <v>139.35900000000001</v>
+      </c>
+      <c r="H2">
+        <v>147.477</v>
+      </c>
+      <c r="I2">
+        <v>151.536</v>
+      </c>
+      <c r="J2">
+        <v>156.94800000000001</v>
+      </c>
+      <c r="K2">
+        <v>165.066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>125.82900000000001</v>
+      </c>
+      <c r="C4">
+        <v>132.59400000000002</v>
+      </c>
+      <c r="D4">
+        <v>146.12400000000002</v>
+      </c>
+      <c r="E4">
+        <v>152.88900000000001</v>
+      </c>
+      <c r="F4">
+        <v>162.35999999999999</v>
+      </c>
+      <c r="G4">
+        <v>171.83100000000002</v>
+      </c>
+      <c r="H4">
+        <v>182.655</v>
+      </c>
+      <c r="I4">
+        <v>192.126</v>
+      </c>
+      <c r="J4">
+        <v>201.59700000000001</v>
+      </c>
+      <c r="K4">
+        <v>212.42100000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26129EA-7E97-D74C-A79E-1854E9C7A8DA}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>228.65700000000001</v>
+      </c>
+      <c r="C2">
+        <v>234.06900000000002</v>
+      </c>
+      <c r="D2">
+        <v>240.834</v>
+      </c>
+      <c r="E2">
+        <v>247.59900000000002</v>
+      </c>
+      <c r="F2">
+        <v>255.71700000000001</v>
+      </c>
+      <c r="G2">
+        <v>259.77600000000001</v>
+      </c>
+      <c r="H2">
+        <v>266.541</v>
+      </c>
+      <c r="I2">
+        <v>273.30600000000004</v>
+      </c>
+      <c r="J2">
+        <v>277.36500000000001</v>
+      </c>
+      <c r="K2">
+        <v>282.77700000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846E1DC0-3849-2D4C-8837-834996CE26A9}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>211.06800000000001</v>
+      </c>
+      <c r="C2">
+        <v>225.95100000000002</v>
+      </c>
+      <c r="D2">
+        <v>238.12800000000001</v>
+      </c>
+      <c r="E2">
+        <v>255.71700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B21845A-3E95-A34D-ABE6-92723E0AF0F7}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>124.476</v>
+      </c>
+      <c r="C2">
+        <v>131.24100000000001</v>
+      </c>
+      <c r="D2">
+        <v>143.41800000000001</v>
+      </c>
+      <c r="E2">
+        <v>154.24200000000002</v>
+      </c>
+      <c r="F2">
+        <v>162.35999999999999</v>
+      </c>
+      <c r="G2">
+        <v>174.53700000000001</v>
+      </c>
+      <c r="H2">
+        <v>182.655</v>
+      </c>
+      <c r="I2">
+        <v>193.47900000000001</v>
+      </c>
+      <c r="J2">
+        <v>201.59700000000001</v>
+      </c>
+      <c r="K2">
+        <v>213.774</v>
+      </c>
+      <c r="L2">
+        <v>221.892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>167.77199999999999</v>
+      </c>
+      <c r="C4">
+        <v>178.59600000000003</v>
+      </c>
+      <c r="D4">
+        <v>185.36100000000002</v>
+      </c>
+      <c r="E4">
+        <v>197.53800000000001</v>
+      </c>
+      <c r="F4">
+        <v>205.65600000000001</v>
+      </c>
+      <c r="G4">
+        <v>216.48</v>
+      </c>
+      <c r="H4">
+        <v>224.59800000000001</v>
+      </c>
+      <c r="I4">
+        <v>236.77500000000003</v>
+      </c>
+      <c r="J4">
+        <v>246.24600000000001</v>
+      </c>
+      <c r="K4">
+        <v>255.71700000000001</v>
+      </c>
+      <c r="L4">
+        <v>265.18800000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BA7549-C2C0-E44F-BBF5-7DD8AE724E5B}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+      <c r="M1">
+        <v>130</v>
+      </c>
+      <c r="N1">
+        <v>140</v>
+      </c>
+      <c r="O1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>105.53400000000001</v>
+      </c>
+      <c r="C2">
+        <v>113.652</v>
+      </c>
+      <c r="D2">
+        <v>121.77000000000001</v>
+      </c>
+      <c r="E2">
+        <v>132.59400000000002</v>
+      </c>
+      <c r="F2">
+        <v>139.35900000000001</v>
+      </c>
+      <c r="G2">
+        <v>148.83000000000001</v>
+      </c>
+      <c r="H2">
+        <v>156.94800000000001</v>
+      </c>
+      <c r="I2">
+        <v>165.06600000000003</v>
+      </c>
+      <c r="J2">
+        <v>171.83100000000002</v>
+      </c>
+      <c r="K2">
+        <v>182.655</v>
+      </c>
+      <c r="L2">
+        <v>189.42</v>
+      </c>
+      <c r="M2">
+        <v>197.53800000000001</v>
+      </c>
+      <c r="N2">
+        <v>207.00900000000001</v>
+      </c>
+      <c r="O2">
+        <v>215.12700000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C6931B-C38E-6740-B787-DE5F50E2BEBD}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+      <c r="M1">
+        <v>130</v>
+      </c>
+      <c r="N1">
+        <v>140</v>
+      </c>
+      <c r="O1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>116.358</v>
+      </c>
+      <c r="C2">
+        <v>124.47600000000001</v>
+      </c>
+      <c r="D2">
+        <v>138.006</v>
+      </c>
+      <c r="E2">
+        <v>148.83000000000001</v>
+      </c>
+      <c r="F2">
+        <v>158.30100000000002</v>
+      </c>
+      <c r="G2">
+        <v>169.125</v>
+      </c>
+      <c r="H2">
+        <v>175.89000000000001</v>
+      </c>
+      <c r="I2">
+        <v>190.77300000000002</v>
+      </c>
+      <c r="J2">
+        <v>197.53800000000001</v>
+      </c>
+      <c r="K2">
+        <v>211.06800000000001</v>
+      </c>
+      <c r="L2">
+        <v>217.83300000000003</v>
+      </c>
+      <c r="M2">
+        <v>232.71600000000001</v>
+      </c>
+      <c r="N2">
+        <v>240.834</v>
+      </c>
+      <c r="O2">
+        <v>251.65800000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F66AE4-4B14-8246-AB4B-379FCF2F35CA}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+      <c r="M1">
+        <v>130</v>
+      </c>
+      <c r="N1">
+        <v>140</v>
+      </c>
+      <c r="O1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>186.71400000000003</v>
+      </c>
+      <c r="C2">
+        <v>200.244</v>
+      </c>
+      <c r="D2">
+        <v>213.77400000000003</v>
+      </c>
+      <c r="E2">
+        <v>227.304</v>
+      </c>
+      <c r="F2">
+        <v>238.12800000000001</v>
+      </c>
+      <c r="G2">
+        <v>251.65800000000002</v>
+      </c>
+      <c r="H2">
+        <v>265.18799999999999</v>
+      </c>
+      <c r="I2">
+        <v>278.71800000000002</v>
+      </c>
+      <c r="J2">
+        <v>292.24800000000005</v>
+      </c>
+      <c r="K2">
+        <v>307.13100000000003</v>
+      </c>
+      <c r="L2">
+        <v>320.661</v>
+      </c>
+      <c r="M2">
+        <v>331.48500000000007</v>
+      </c>
+      <c r="N2">
+        <v>345.01499999999999</v>
+      </c>
+      <c r="O2">
+        <v>357.19200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008E9DB8-50E6-F64D-99D2-CC66B69E2066}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+      <c r="M1">
+        <v>130</v>
+      </c>
+      <c r="N1">
+        <v>140</v>
+      </c>
+      <c r="O1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>196.185</v>
+      </c>
+      <c r="C2">
+        <v>212.42099999999999</v>
+      </c>
+      <c r="D2">
+        <v>228.65700000000001</v>
+      </c>
+      <c r="E2">
+        <v>243.54000000000002</v>
+      </c>
+      <c r="F2">
+        <v>257.07</v>
+      </c>
+      <c r="G2">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="H2">
+        <v>286.83600000000001</v>
+      </c>
+      <c r="I2">
+        <v>303.072</v>
+      </c>
+      <c r="J2">
+        <v>320.661</v>
+      </c>
+      <c r="K2">
+        <v>334.19100000000003</v>
+      </c>
+      <c r="L2">
+        <v>350.42700000000002</v>
+      </c>
+      <c r="M2">
+        <v>363.95700000000005</v>
+      </c>
+      <c r="N2">
+        <v>378.84000000000003</v>
+      </c>
+      <c r="O2">
+        <v>395.07600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AF83A6-9364-BC4A-8FD1-8DCF4BE5C626}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1">
+        <v>140</v>
+      </c>
+      <c r="O1" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>208.36199999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>216.48000000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>228.65700000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>240.834</v>
+      </c>
+      <c r="F2" s="2">
+        <v>248.95200000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>261.12900000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>269.24700000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>281.42400000000004</v>
+      </c>
+      <c r="J2" s="2">
+        <v>289.54199999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>301.71900000000005</v>
+      </c>
+      <c r="L2" s="2">
+        <v>309.83700000000005</v>
+      </c>
+      <c r="M2" s="2">
+        <v>322.01400000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>332.83800000000002</v>
+      </c>
+      <c r="O2" s="2">
+        <v>342.30900000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CCAAF-8A7E-BA42-94B1-07C69F6A215D}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>60</v>
+      </c>
+      <c r="C1">
+        <v>70</v>
+      </c>
+      <c r="D1">
+        <v>80</v>
+      </c>
+      <c r="E1">
+        <v>90</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>110</v>
+      </c>
+      <c r="H1">
+        <v>120</v>
+      </c>
+      <c r="I1">
+        <v>130</v>
+      </c>
+      <c r="J1">
+        <v>140</v>
+      </c>
+      <c r="K1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1669.6020000000001</v>
+      </c>
+      <c r="C2">
+        <v>1700.721</v>
+      </c>
+      <c r="D2">
+        <v>1733.193</v>
+      </c>
+      <c r="E2">
+        <v>1764.3120000000001</v>
+      </c>
+      <c r="F2">
+        <v>1795.4310000000003</v>
+      </c>
+      <c r="G2">
+        <v>1826.5500000000002</v>
+      </c>
+      <c r="H2">
+        <v>1859.0220000000002</v>
+      </c>
+      <c r="I2">
+        <v>1890.1410000000001</v>
+      </c>
+      <c r="J2">
+        <v>1921.26</v>
+      </c>
+      <c r="K2">
+        <v>1952.3789999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4239FB3A-ECD8-694B-B528-68D362DBE7CD}">
   <dimension ref="A1:L2"/>
@@ -845,12 +2008,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9570B303-2B0D-B641-B669-3AD8EA1ED1FE}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,4 +2685,659 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CB14A2-2D83-7443-9BB9-FD3D6651E2A4}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>124.47600000000001</v>
+      </c>
+      <c r="C2">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="D2">
+        <v>146.12400000000002</v>
+      </c>
+      <c r="E2">
+        <v>156.94800000000001</v>
+      </c>
+      <c r="F2">
+        <v>169.125</v>
+      </c>
+      <c r="G2">
+        <v>179.94900000000001</v>
+      </c>
+      <c r="H2">
+        <v>190.77300000000002</v>
+      </c>
+      <c r="I2">
+        <v>202.95000000000002</v>
+      </c>
+      <c r="J2">
+        <v>213.77400000000003</v>
+      </c>
+      <c r="K2">
+        <v>224.59800000000001</v>
+      </c>
+      <c r="L2">
+        <v>236.77500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085A2392-C546-C442-AB23-3081A98D3088}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+      <c r="M1">
+        <v>130</v>
+      </c>
+      <c r="N1">
+        <v>140</v>
+      </c>
+      <c r="O1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>96.063000000000002</v>
+      </c>
+      <c r="C2">
+        <v>104.181</v>
+      </c>
+      <c r="D2">
+        <v>110.94600000000001</v>
+      </c>
+      <c r="E2">
+        <v>119.06400000000001</v>
+      </c>
+      <c r="F2">
+        <v>125.82900000000001</v>
+      </c>
+      <c r="G2">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="H2">
+        <v>140.71200000000002</v>
+      </c>
+      <c r="I2">
+        <v>148.83000000000001</v>
+      </c>
+      <c r="J2">
+        <v>156.94800000000001</v>
+      </c>
+      <c r="K2">
+        <v>163.71299999999999</v>
+      </c>
+      <c r="L2">
+        <v>170.47800000000001</v>
+      </c>
+      <c r="M2">
+        <v>179.94900000000001</v>
+      </c>
+      <c r="N2">
+        <v>185.36100000000002</v>
+      </c>
+      <c r="O2">
+        <v>192.126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D72D8B4-620B-AB41-A9A1-88F0E55665A0}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>113.652</v>
+      </c>
+      <c r="C2">
+        <v>124.47600000000001</v>
+      </c>
+      <c r="D2">
+        <v>136.65300000000002</v>
+      </c>
+      <c r="E2">
+        <v>146.12400000000002</v>
+      </c>
+      <c r="F2">
+        <v>158.30100000000002</v>
+      </c>
+      <c r="G2">
+        <v>169.125</v>
+      </c>
+      <c r="H2">
+        <v>179.94900000000001</v>
+      </c>
+      <c r="I2">
+        <v>190.77300000000002</v>
+      </c>
+      <c r="J2">
+        <v>200.244</v>
+      </c>
+      <c r="K2">
+        <v>212.42099999999999</v>
+      </c>
+      <c r="L2">
+        <v>223.245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8A1703-EBA5-3D4C-B27A-4FA22686467A}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>128.535</v>
+      </c>
+      <c r="C2">
+        <v>143.41800000000001</v>
+      </c>
+      <c r="D2">
+        <v>159.654</v>
+      </c>
+      <c r="E2">
+        <v>171.83100000000002</v>
+      </c>
+      <c r="F2">
+        <v>186.71400000000003</v>
+      </c>
+      <c r="G2">
+        <v>202.95000000000002</v>
+      </c>
+      <c r="H2">
+        <v>216.48000000000002</v>
+      </c>
+      <c r="I2">
+        <v>230.01000000000002</v>
+      </c>
+      <c r="J2">
+        <v>244.893</v>
+      </c>
+      <c r="K2">
+        <v>259.77600000000001</v>
+      </c>
+      <c r="L2">
+        <v>276.012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E191975B-A2BF-D645-86A1-1A6B3B429FFE}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>185.36100000000002</v>
+      </c>
+      <c r="C2">
+        <v>202.95000000000002</v>
+      </c>
+      <c r="D2">
+        <v>217.83300000000003</v>
+      </c>
+      <c r="E2">
+        <v>235.42200000000003</v>
+      </c>
+      <c r="F2">
+        <v>254.36400000000003</v>
+      </c>
+      <c r="G2">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="H2">
+        <v>288.18900000000002</v>
+      </c>
+      <c r="I2">
+        <v>304.42500000000001</v>
+      </c>
+      <c r="J2">
+        <v>323.36700000000002</v>
+      </c>
+      <c r="K2">
+        <v>339.60300000000007</v>
+      </c>
+      <c r="L2">
+        <v>355.83900000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432A7DFF-9DF0-534E-8EC7-09FAA236A38F}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>184.00800000000001</v>
+      </c>
+      <c r="C2">
+        <v>202.95000000000002</v>
+      </c>
+      <c r="D2">
+        <v>217.83300000000003</v>
+      </c>
+      <c r="E2">
+        <v>235.42200000000003</v>
+      </c>
+      <c r="F2">
+        <v>251.65800000000002</v>
+      </c>
+      <c r="G2">
+        <v>267.89400000000001</v>
+      </c>
+      <c r="H2">
+        <v>288.18900000000002</v>
+      </c>
+      <c r="I2">
+        <v>304.42500000000001</v>
+      </c>
+      <c r="J2">
+        <v>322.01400000000001</v>
+      </c>
+      <c r="K2">
+        <v>336.89699999999999</v>
+      </c>
+      <c r="L2">
+        <v>354.48600000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527EF92D-4424-474D-B1BA-913400DA9517}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="G1">
+        <v>70</v>
+      </c>
+      <c r="H1">
+        <v>80</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+      <c r="J1">
+        <v>100</v>
+      </c>
+      <c r="K1">
+        <v>110</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>171.83100000000002</v>
+      </c>
+      <c r="C2">
+        <v>185.36100000000002</v>
+      </c>
+      <c r="D2">
+        <v>197.53800000000001</v>
+      </c>
+      <c r="E2">
+        <v>212.42099999999999</v>
+      </c>
+      <c r="F2">
+        <v>225.95100000000002</v>
+      </c>
+      <c r="G2">
+        <v>236.77500000000001</v>
+      </c>
+      <c r="H2">
+        <v>251.65800000000002</v>
+      </c>
+      <c r="I2">
+        <v>265.18799999999999</v>
+      </c>
+      <c r="J2">
+        <v>278.71800000000002</v>
+      </c>
+      <c r="K2">
+        <v>290.89500000000004</v>
+      </c>
+      <c r="L2">
+        <v>304.42500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cenniki/cennik_plis.xlsx
+++ b/cenniki/cennik_plis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacperniewczas/Desktop/Kalkulator/cenniki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE87AEFC-5918-B24A-8A5F-5B3F9A0E2998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BE7A54-47A8-564E-B5EF-591F1C8576F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="4" activeTab="8" xr2:uid="{03D5C20E-6BDB-A34F-A0E5-3FC668B5F4C1}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="17820" windowHeight="19820" firstSheet="12" activeTab="19" xr2:uid="{03D5C20E-6BDB-A34F-A0E5-3FC668B5F4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="System_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="System_4a" sheetId="6" r:id="rId5"/>
     <sheet name="System_5" sheetId="7" r:id="rId6"/>
     <sheet name="System_6_6a" sheetId="8" r:id="rId7"/>
-    <sheet name="System 7" sheetId="9" r:id="rId8"/>
+    <sheet name="System_7" sheetId="9" r:id="rId8"/>
     <sheet name="System 8_8a" sheetId="10" r:id="rId9"/>
     <sheet name="System_9_10" sheetId="11" r:id="rId10"/>
     <sheet name="System_11" sheetId="12" r:id="rId11"/>
@@ -2012,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9570B303-2B0D-B641-B669-3AD8EA1ED1FE}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3255,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527EF92D-4424-474D-B1BA-913400DA9517}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
